--- a/analysis/results/Q3/alpha_diversity/alpha_diversity_results_colon.xlsx
+++ b/analysis/results/Q3/alpha_diversity/alpha_diversity_results_colon.xlsx
@@ -9,7 +9,6 @@
     <sheet name="Richness" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Shannon" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Simpson" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Pielou" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -413,22 +412,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.195092067964504</v>
+        <v>-2.81020204199644</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8279568393376</v>
+        <v>11.9515852230701</v>
       </c>
       <c r="D2" t="n">
-        <v>330.245149425244</v>
+        <v>439.998320773593</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0141085245080826</v>
+        <v>-0.235132159420318</v>
       </c>
       <c r="F2" t="n">
-        <v>0.988751918848611</v>
+        <v>0.814215548651924</v>
       </c>
       <c r="G2" t="n">
-        <v>0.988751918848611</v>
+        <v>0.814215548651924</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -439,22 +438,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.556454141232093</v>
+        <v>-10.6842026798034</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1986515353307</v>
+        <v>15.2916274589541</v>
       </c>
       <c r="D3" t="n">
-        <v>238.73296159854</v>
+        <v>332.353390634119</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0305766688346001</v>
+        <v>-0.698696244626808</v>
       </c>
       <c r="F3" t="n">
-        <v>0.975632695549594</v>
+        <v>0.485230498651081</v>
       </c>
       <c r="G3" t="n">
-        <v>0.975632695549594</v>
+        <v>0.485230498651081</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -465,22 +464,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.88010319272057</v>
+        <v>-5.68030759143172</v>
       </c>
       <c r="C4" t="n">
-        <v>18.9706996772151</v>
+        <v>16.5617325117544</v>
       </c>
       <c r="D4" t="n">
-        <v>263.17380498523</v>
+        <v>341.719923733831</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0991056326182153</v>
+        <v>-0.342977861005798</v>
       </c>
       <c r="F4" t="n">
-        <v>0.921129846418631</v>
+        <v>0.731826005751981</v>
       </c>
       <c r="G4" t="n">
-        <v>0.921129846418631</v>
+        <v>0.731826005751981</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -531,22 +530,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0375809605048128</v>
+        <v>0.0332719014213175</v>
       </c>
       <c r="C2" t="n">
-        <v>0.203649560839601</v>
+        <v>0.157585752236913</v>
       </c>
       <c r="D2" t="n">
-        <v>332.62143010912</v>
+        <v>456.048580180464</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1845374001784</v>
+        <v>0.211135213361782</v>
       </c>
       <c r="F2" t="n">
-        <v>0.853704349009426</v>
+        <v>0.832876075306535</v>
       </c>
       <c r="G2" t="n">
-        <v>0.853704349009426</v>
+        <v>0.832876075306535</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -557,22 +556,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.138870040544223</v>
+        <v>-0.137885519091622</v>
       </c>
       <c r="C3" t="n">
-        <v>0.262453381505097</v>
+        <v>0.203467705806898</v>
       </c>
       <c r="D3" t="n">
-        <v>239.592245320644</v>
+        <v>336.238442441046</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.529122695039559</v>
+        <v>-0.677677661645642</v>
       </c>
       <c r="F3" t="n">
-        <v>0.597210207528422</v>
+        <v>0.498442130570158</v>
       </c>
       <c r="G3" t="n">
-        <v>0.597210207528422</v>
+        <v>0.498442130570158</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -583,22 +582,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>0.100674767046079</v>
+        <v>-0.118969730824738</v>
       </c>
       <c r="C4" t="n">
-        <v>0.274504916147053</v>
+        <v>0.220176193584403</v>
       </c>
       <c r="D4" t="n">
-        <v>262.54700036306</v>
+        <v>346.763337918521</v>
       </c>
       <c r="E4" t="n">
-        <v>0.366750324399099</v>
+        <v>-0.540338757283182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.714100665354376</v>
+        <v>0.589310301416076</v>
       </c>
       <c r="G4" t="n">
-        <v>0.714100665354376</v>
+        <v>0.589310301416076</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -649,22 +648,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0148689759931138</v>
+        <v>-0.0067283939551037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0332998404996319</v>
+        <v>0.0257966520394649</v>
       </c>
       <c r="D2" t="n">
-        <v>332.973548086703</v>
+        <v>453.40650735297</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.44651793432098</v>
+        <v>-0.260824309480559</v>
       </c>
       <c r="F2" t="n">
-        <v>0.65551341444875</v>
+        <v>0.794346416832482</v>
       </c>
       <c r="G2" t="n">
-        <v>0.65551341444875</v>
+        <v>0.794346416832482</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -675,22 +674,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0363832329696369</v>
+        <v>-0.0247635201549336</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0422953686105237</v>
+        <v>0.0332756366134256</v>
       </c>
       <c r="D3" t="n">
-        <v>240.107217453952</v>
+        <v>334.532413323496</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.860217895360397</v>
+        <v>-0.744193730765239</v>
       </c>
       <c r="F3" t="n">
-        <v>0.390527043139796</v>
+        <v>0.457281688589013</v>
       </c>
       <c r="G3" t="n">
-        <v>0.390527043139796</v>
+        <v>0.457281688589013</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -701,140 +700,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0353443294119527</v>
+        <v>0.00471784549530209</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0443425381327647</v>
+        <v>0.0360114880754442</v>
       </c>
       <c r="D4" t="n">
-        <v>261.852277547666</v>
+        <v>344.950475605985</v>
       </c>
       <c r="E4" t="n">
-        <v>0.797075018712941</v>
+        <v>0.131009456910478</v>
       </c>
       <c r="F4" t="n">
-        <v>0.426129600709114</v>
+        <v>0.895844197601015</v>
       </c>
       <c r="G4" t="n">
-        <v>0.426129600709114</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.00906242720928872</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0344108623468058</v>
-      </c>
-      <c r="D2" t="n">
-        <v>322.352620225228</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.263359491487139</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.792441770350139</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.792441770350139</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.0375938392196058</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0415408588705473</v>
-      </c>
-      <c r="D3" t="n">
-        <v>233.660356972197</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.904984640225147</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.36640568947898</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.36640568947898</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0283232501669677</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0439247812327273</v>
-      </c>
-      <c r="D4" t="n">
-        <v>250.923704807941</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.644812549364838</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.519637745667699</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.519637745667699</v>
+        <v>0.895844197601015</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
